--- a/biology/Médecine/Jean-François_Payen_(1800-1870)/Jean-François_Payen_(1800-1870).xlsx
+++ b/biology/Médecine/Jean-François_Payen_(1800-1870)/Jean-François_Payen_(1800-1870).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Payen_(1800-1870)</t>
+          <t>Jean-François_Payen_(1800-1870)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Payen, né le 24 juillet 1800 à Paris et mort le 7 février 1870 dans la même ville, est un médecin et érudit français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Payen_(1800-1870)</t>
+          <t>Jean-François_Payen_(1800-1870)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Payen est né le 24 juillet 1800 à Paris[1].
-Il passe presque toute sa vie à collectionner les ouvrages sur les eaux minérales et à rassembler tous types de documents sur Montaigne : autographes, livres, gravures, portraits, bustes, etc[1]. La collection de livres, brochures, journaux, etc., concernant Montaigne, qu'il a réuni, se trouve à la Bibliothèque nationale[1].
-Citons de lui : Notice bibliographique sur Montaigne (Paris, 1837,in-8), avec un premier supplément en 1837, un autre en 1860 Documents inédits ou peu connus sur Montaigne (Paris, 1847, in-8) ; Nouveaux documents... (Paris, 1850, in-8) ; Documents inédits sur Montaigne ; Ephémérides, lettres... (Paris, 1853, in-8) ; Recherches sur Montaigne (Paris, 1856, in-8) ; Note bibliographique sur Etienne de La Boétie (Paris, 1846) Notice bio-bibliographique sur La Boétie... (Paris, 1853, in-8) et d'autres brochures sur Montaigne, sur les eaux minérales, etc[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Payen est né le 24 juillet 1800 à Paris.
+Il passe presque toute sa vie à collectionner les ouvrages sur les eaux minérales et à rassembler tous types de documents sur Montaigne : autographes, livres, gravures, portraits, bustes, etc. La collection de livres, brochures, journaux, etc., concernant Montaigne, qu'il a réuni, se trouve à la Bibliothèque nationale.
+Citons de lui : Notice bibliographique sur Montaigne (Paris, 1837,in-8), avec un premier supplément en 1837, un autre en 1860 Documents inédits ou peu connus sur Montaigne (Paris, 1847, in-8) ; Nouveaux documents... (Paris, 1850, in-8) ; Documents inédits sur Montaigne ; Ephémérides, lettres... (Paris, 1853, in-8) ; Recherches sur Montaigne (Paris, 1856, in-8) ; Note bibliographique sur Etienne de La Boétie (Paris, 1846) Notice bio-bibliographique sur La Boétie... (Paris, 1853, in-8) et d'autres brochures sur Montaigne, sur les eaux minérales, etc. 
 Il apporta son concours au Bulletin du Bibliophile, que le libraire-éditeur Joseph Techener avait fondé avec Charles Nodier en 1834.
-Jean-François Payen meurt le 7 février 1870 dans sa ville natale[1].
+Jean-François Payen meurt le 7 février 1870 dans sa ville natale.
 </t>
         </is>
       </c>
